--- a/biology/Botanique/Celtis_ehrenbergiana/Celtis_ehrenbergiana.xlsx
+++ b/biology/Botanique/Celtis_ehrenbergiana/Celtis_ehrenbergiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Tala (Celtis ehrenbergiana, ou synonyme Celtis tala) est une espèce de plantes à fleurs de la famille des Cannabacées. C'est une plante arbustive native de l'Amérique du Sud tropicale et subtropicale. Doté de fortes épines, c'est un des composants principaux des espinales des prairies et des forêts du Chaco et de la Pampa argentine. Il est apprécié pour son bois dur et dense, qui produit un excellent "bois énergie" et s'utilise pour la fabrication d'articles durables.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tala est un arbre atteignant 12 m de hauteur. Selon les disponibilités en eau, il peut adopter un aspect d'arbre ou d'arbuste, se ramifiant à la base. Dans le premier cas, le
 tronc est tortueux et atteint 40 cm de diamètre; dans le second cas il produit de nombreux troncs de quelque 20 cm de diamètre. Le feuillage est dense et de forme globulaire.
@@ -547,7 +561,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve depuis le sud de la Bolivie et du Brésil méridional jusqu'au sud-est de la province de Buenos Aires en Argentine, en passant par le Paraguay. C'est une espèce très présente sur les berges pentues du río Paraná, qui participe aux communautés des forêts galeries et des côtes maritimes d'Argentine et d'Uruguay.
 Il préfère les sols calcaires, secs ou peu humides, et avec un bon drainage.
@@ -579,7 +595,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois du tala est dur et dense; seule la petite envergure du tronc a empêché son utilisation plus intense. On l'emploie pour les petites pièces d'ébénisterie, des instruments, ou comme bois pour l'élaboration de charbon de bois.
 Écologiquement, sa densité permet le développement d'une riche faune dans les bois de tala appelés localement talares. Nidifient dans son feuillage : le Moqueur plombé Mimus saturninus, le Synallaxe damier (Schoeniophylax phryganophilus), la Conure veuve (Myiopsitta monachus), le Synallaxe rousselé (Phacellodomus striaticollis), le Fournier roux (Furnarius rufus), l'Annumbi fagoteur (Anumbius annumbi) et le Merle à ventre roux (Turdus rufiventris).
